--- a/do-quiz/data.xlsx
+++ b/do-quiz/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Sentence 1</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>10.00 out of 10.00 (100%)</t>
+  </si>
+  <si>
+    <t>as a superior to man</t>
+  </si>
+  <si>
+    <t>8.00 out of 10.00 (80%)</t>
+  </si>
+  <si>
+    <t>Nancy Astor</t>
+  </si>
+  <si>
+    <t>Emmeline Pankhurst</t>
   </si>
 </sst>
 </file>
@@ -998,13 +1010,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="21.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1053,8 +1065,8 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1069,15 +1081,15 @@
         <v>1920</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1089,7 +1101,67 @@
         <v>1920</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1928</v>
+      </c>
+      <c r="E5">
+        <v>1920</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1924</v>
+      </c>
+      <c r="E6">
+        <v>1920</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1928</v>
+      </c>
+      <c r="E7">
+        <v>1928</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/do-quiz/data.xlsx
+++ b/do-quiz/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sentence 1</t>
   </si>
@@ -62,13 +62,13 @@
     <t>as a superior to man</t>
   </si>
   <si>
-    <t>8.00 out of 10.00 (80%)</t>
-  </si>
-  <si>
     <t>Nancy Astor</t>
   </si>
   <si>
     <t>Emmeline Pankhurst</t>
+  </si>
+  <si>
+    <t>0.00 out of 10.00 (0%)</t>
   </si>
 </sst>
 </file>
@@ -1010,13 +1010,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="21.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1069,99 +1069,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3">
+        <v>1924</v>
+      </c>
+      <c r="E3">
         <v>1928</v>
       </c>
-      <c r="E3">
-        <v>1920</v>
-      </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1928</v>
-      </c>
-      <c r="E4">
-        <v>1920</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1928</v>
-      </c>
-      <c r="E5">
-        <v>1920</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1924</v>
-      </c>
-      <c r="E6">
-        <v>1920</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>1928</v>
-      </c>
-      <c r="E7">
-        <v>1928</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
